--- a/1.RDBMS/JAVA15-DQVINH-Database Design.xlsx
+++ b/1.RDBMS/JAVA15-DQVINH-Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA15\3.Database\1.RDBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E40A3F8-1BF6-4304-AE28-367BD9F2BFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B30AB9-A269-4540-86AB-B8EBB4C6D18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,52 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
-  <si>
-    <t>Mat hang</t>
-  </si>
-  <si>
-    <t>Kich thuoc</t>
-  </si>
-  <si>
-    <t>Gia ban</t>
-  </si>
-  <si>
-    <t>Gia mua</t>
-  </si>
-  <si>
-    <t>Loai san pham</t>
-  </si>
-  <si>
-    <t>Don hang</t>
-  </si>
-  <si>
-    <t>Dia chi</t>
-  </si>
-  <si>
-    <t>So dien thoai</t>
-  </si>
-  <si>
-    <t>Phuong thuc gd</t>
-  </si>
-  <si>
-    <t>Chi tiet</t>
-  </si>
-  <si>
-    <t>Ngay dat</t>
-  </si>
-  <si>
-    <t>Tong tien</t>
-  </si>
-  <si>
-    <t>Phi van chuyen</t>
-  </si>
-  <si>
-    <t>Khach hang</t>
-  </si>
-  <si>
-    <t>Ho ten</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Email</t>
   </si>
@@ -79,152 +34,185 @@
     <t>Tinh trang don hang</t>
   </si>
   <si>
-    <t>Moi nhan</t>
-  </si>
-  <si>
-    <t>Da lay hang</t>
-  </si>
-  <si>
-    <t>Dang giao</t>
-  </si>
-  <si>
-    <t>Da giao</t>
-  </si>
-  <si>
-    <t>Hoan tra</t>
-  </si>
-  <si>
-    <t>Thong tin nhan vien</t>
-  </si>
-  <si>
     <t>Chu cua hang (Mat hang , So luong ban , So luong ton kho ,Doanh thu)</t>
   </si>
   <si>
     <t>Don hang (Ten khach hang , phuong thuc giao dich , mat hang )</t>
   </si>
   <si>
-    <t>Ma MH</t>
-  </si>
-  <si>
-    <t>Chat lieu</t>
-  </si>
-  <si>
-    <t>Mau sac</t>
-  </si>
-  <si>
-    <t>Hinh anh</t>
-  </si>
-  <si>
-    <t>Ten MH</t>
-  </si>
-  <si>
-    <t>Ma Don Hang</t>
-  </si>
-  <si>
-    <t>So luong MH</t>
-  </si>
-  <si>
-    <t>Danh sach MH</t>
-  </si>
-  <si>
-    <t>Dia chi giao hang</t>
-  </si>
-  <si>
-    <t>Ma Tinh trang</t>
-  </si>
-  <si>
-    <t>Mo ta</t>
-  </si>
-  <si>
-    <t>Tinh trang</t>
-  </si>
-  <si>
-    <t>Thoi gian</t>
-  </si>
-  <si>
-    <t>Nguoi phu trach</t>
-  </si>
-  <si>
-    <t>Ma KH</t>
-  </si>
-  <si>
-    <t>Tai khoan dang nhap</t>
-  </si>
-  <si>
-    <t>Nhan vien</t>
-  </si>
-  <si>
     <t>MaNV</t>
   </si>
   <si>
     <t>TenNV</t>
   </si>
   <si>
-    <t>Diachi</t>
-  </si>
-  <si>
     <t>SDT</t>
   </si>
   <si>
-    <t>Tai khoan</t>
-  </si>
-  <si>
-    <t>Mat khau</t>
-  </si>
-  <si>
-    <t>Nha san xuat</t>
-  </si>
-  <si>
     <t>MaNSX</t>
   </si>
   <si>
     <t>TenNSX</t>
   </si>
   <si>
-    <t>Dia Chi</t>
-  </si>
-  <si>
-    <t>Danh sach mat hang</t>
-  </si>
-  <si>
-    <t>Ngay tham gia</t>
-  </si>
-  <si>
-    <t>Hoa don</t>
-  </si>
-  <si>
     <t>MaHD</t>
   </si>
   <si>
     <t>DonHang</t>
   </si>
   <si>
-    <t>So tien thanh toan</t>
-  </si>
-  <si>
-    <t>Ngay xuat hoa don</t>
-  </si>
-  <si>
-    <t>Khuyen mai - thoi gian</t>
-  </si>
-  <si>
-    <t>So luong</t>
-  </si>
-  <si>
-    <t>Loai hang</t>
-  </si>
-  <si>
-    <t>Ma loai hang</t>
-  </si>
-  <si>
-    <t>Ten loai hang</t>
+    <t>LoaiHang</t>
+  </si>
+  <si>
+    <t>HoaDon</t>
+  </si>
+  <si>
+    <t>MatHang</t>
+  </si>
+  <si>
+    <t>TinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>NhaSanXuat</t>
+  </si>
+  <si>
+    <t>MaLH</t>
+  </si>
+  <si>
+    <t>MaMH</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>MaTT</t>
+  </si>
+  <si>
+    <t>MaKH</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>ChatLieu</t>
+  </si>
+  <si>
+    <t>MoTa</t>
+  </si>
+  <si>
+    <t>TinhTrang</t>
+  </si>
+  <si>
+    <t>TenKH</t>
+  </si>
+  <si>
+    <t>SoTienCanThanhToan</t>
+  </si>
+  <si>
+    <t>MauSac</t>
+  </si>
+  <si>
+    <t>DanhSachMatHang</t>
+  </si>
+  <si>
+    <t>ThoiGian</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>NgayXuatHoaDon</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>MatHang - SoLuong</t>
+  </si>
+  <si>
+    <t>NguoiPhuTrach</t>
+  </si>
+  <si>
+    <t>NgayDatHang</t>
+  </si>
+  <si>
+    <t>GiaBan</t>
+  </si>
+  <si>
+    <t>DiaChiGiaoHang</t>
+  </si>
+  <si>
+    <t>TaiKhoanMXH</t>
+  </si>
+  <si>
+    <t>TaiKhoan</t>
+  </si>
+  <si>
+    <t>NgayThamGia</t>
+  </si>
+  <si>
+    <t>GiaMua</t>
+  </si>
+  <si>
+    <t>SDTNguoiNhan</t>
+  </si>
+  <si>
+    <t>DanhSachDonHang</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
+  </si>
+  <si>
+    <t>LoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>TenMH</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>KhuyenMai-ThoiGian</t>
+  </si>
+  <si>
+    <t>Cho Xac Nhan</t>
+  </si>
+  <si>
+    <t>Da Xac Nhan</t>
+  </si>
+  <si>
+    <t>Dang Dong Goi</t>
+  </si>
+  <si>
+    <t>Dang Giao</t>
+  </si>
+  <si>
+    <t>Hoan thanh</t>
+  </si>
+  <si>
+    <t>Huy Don Hang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +220,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,18 +244,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,14 +257,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +565,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,270 +583,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="6:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -902,18 +976,18 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
